--- a/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление без сохранения на один день.xlsx
+++ b/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление без сохранения на один день.xlsx
@@ -66,9 +66,6 @@
     <t>Начальник структурного подразделения__________________________________</t>
   </si>
   <si>
-    <t xml:space="preserve">     Прошу предоставить мне социальный отпуск _______________ 2019                        без сохранения заработной платы.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Заместитель директора </t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t xml:space="preserve">Начальник производства </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Прошу предоставить мне социальный отпуск _______________                         без сохранения заработной платы.</t>
   </si>
 </sst>
 </file>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +730,7 @@
     </row>
     <row r="13" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -775,7 +775,7 @@
     </row>
     <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -786,12 +786,12 @@
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -802,7 +802,7 @@
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -828,7 +828,7 @@
       <c r="D35" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uWW4KmP9LyO/iCXe5tOfFyMvUgeJNu/6Gh5SZI7vlkZFtT5hzQKuWbUnIvy3hre8M278oF1fYVVe6yNIIMeVYQ==" saltValue="wUVXKaNS39hgTi92g6E+BQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="11">
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A3:B3"/>
